--- a/biology/Zoologie/Hippocampus_reidi/Hippocampus_reidi.xlsx
+++ b/biology/Zoologie/Hippocampus_reidi/Hippocampus_reidi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippocampus reidi, communément appelé Hippocampe long-nez, est une espèce d'hippocampe, de la famille des Syngnathidae.
 Il vit dans les eaux peu profondes de l'ouest de l’océan Atlantique en bordure de Bahamas, Barbade, Belize, Bermudes, Brésil, Colombie, Cuba, États-Unis, Grenade, Haïti, Honduras, Jamaïque, Panama  et Venezuela.
